--- a/v084/public/rubyxl/r_purords_eiaj.xlsx
+++ b/v084/public/rubyxl/r_purords_eiaj.xlsx
@@ -357,16 +357,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>:loca_name_sect_dflt</t>
-  </si>
-  <si>
     <t>:purord_sno</t>
   </si>
   <si>
     <t>:loca_name_to</t>
-  </si>
-  <si>
-    <t>:person_name_dflt</t>
   </si>
   <si>
     <t>:itm_code#sort2</t>
@@ -404,6 +398,14 @@
   </si>
   <si>
     <t>3N3+:purord_sno#code39+ 001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>:loca_name_sect_chrg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>:person_name_chrg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -865,20 +867,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,14 +903,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,27 +932,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,8 +1238,8 @@
   <dimension ref="A1:BQ75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ7" sqref="AJ7"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AU49" sqref="AU49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1380,7 +1382,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="23" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
@@ -1396,7 +1398,7 @@
       <c r="R3" s="24"/>
       <c r="S3" s="24"/>
       <c r="T3" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="24"/>
       <c r="V3" s="24"/>
@@ -1480,7 +1482,7 @@
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
       <c r="AJ4" s="59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AK4" s="13"/>
       <c r="AL4" s="13"/>
@@ -1512,7 +1514,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
@@ -1524,13 +1526,13 @@
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
       <c r="P5" s="26" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="28"/>
       <c r="T5" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" s="27"/>
       <c r="V5" s="27"/>
@@ -1547,21 +1549,21 @@
       <c r="AG5" s="16"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
-      <c r="AJ5" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK5" s="81"/>
-      <c r="AL5" s="81"/>
-      <c r="AM5" s="81"/>
-      <c r="AN5" s="81"/>
-      <c r="AO5" s="81"/>
-      <c r="AP5" s="81"/>
-      <c r="AQ5" s="81"/>
-      <c r="AR5" s="81"/>
-      <c r="AS5" s="81"/>
-      <c r="AT5" s="81"/>
-      <c r="AU5" s="81"/>
-      <c r="AV5" s="81"/>
+      <c r="AJ5" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="61"/>
+      <c r="AM5" s="61"/>
+      <c r="AN5" s="61"/>
+      <c r="AO5" s="61"/>
+      <c r="AP5" s="61"/>
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="61"/>
+      <c r="AS5" s="61"/>
+      <c r="AT5" s="61"/>
+      <c r="AU5" s="61"/>
+      <c r="AV5" s="61"/>
       <c r="AW5" s="4"/>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
@@ -1576,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="19"/>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="19"/>
       <c r="F6" s="29" t="s">
         <v>9</v>
@@ -1615,19 +1617,19 @@
       <c r="AG6" s="17"/>
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
-      <c r="AJ6" s="81"/>
-      <c r="AK6" s="81"/>
-      <c r="AL6" s="81"/>
-      <c r="AM6" s="81"/>
-      <c r="AN6" s="81"/>
-      <c r="AO6" s="81"/>
-      <c r="AP6" s="81"/>
-      <c r="AQ6" s="81"/>
-      <c r="AR6" s="81"/>
-      <c r="AS6" s="81"/>
-      <c r="AT6" s="81"/>
-      <c r="AU6" s="81"/>
-      <c r="AV6" s="81"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="61"/>
+      <c r="AN6" s="61"/>
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="61"/>
+      <c r="AR6" s="61"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="61"/>
+      <c r="AU6" s="61"/>
+      <c r="AV6" s="61"/>
       <c r="AW6" s="14"/>
       <c r="AX6" s="14"/>
       <c r="AY6" s="14"/>
@@ -1648,11 +1650,11 @@
         <v>1</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="C7" s="67"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="68"/>
       <c r="E7" s="19"/>
       <c r="F7" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -1666,7 +1668,7 @@
       <c r="P7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="R7" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
@@ -1718,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="67" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="68"/>
@@ -1790,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="C9" s="67"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="68"/>
       <c r="E9" s="19"/>
       <c r="F9" s="34"/>
@@ -1856,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="68"/>
@@ -1881,12 +1883,12 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
-      <c r="T10" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="62"/>
+      <c r="T10" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="74"/>
       <c r="X10" s="22" t="s">
         <v>25</v>
       </c>
@@ -1936,11 +1938,11 @@
         <v>1</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="67"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="68"/>
       <c r="E11" s="8"/>
       <c r="F11" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="38"/>
@@ -1957,12 +1959,12 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
-      <c r="T11" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="62"/>
+      <c r="T11" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="74"/>
       <c r="X11" s="37"/>
       <c r="Y11" s="37"/>
       <c r="Z11" s="37"/>
@@ -1971,7 +1973,7 @@
       <c r="AC11" s="35"/>
       <c r="AD11" s="35"/>
       <c r="AE11" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AF11" s="35"/>
       <c r="AG11" s="18"/>
@@ -2010,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="19"/>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="67" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="68"/>
@@ -2041,11 +2043,11 @@
       <c r="AA12" s="22"/>
       <c r="AB12" s="22"/>
       <c r="AC12" s="25"/>
-      <c r="AD12" s="75" t="s">
+      <c r="AD12" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="77"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="64"/>
       <c r="AG12" s="17"/>
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
@@ -2089,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="19"/>
-      <c r="C13" s="67"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="68"/>
       <c r="E13" s="19"/>
       <c r="F13" s="31"/>
@@ -2128,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="19"/>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="67" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="68"/>
@@ -2139,7 +2141,7 @@
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
       <c r="I14" s="47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J14" s="47"/>
       <c r="K14" s="46"/>
@@ -2211,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="67"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="68"/>
       <c r="E15" s="19"/>
       <c r="F15" s="50" t="s">
@@ -2254,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="19"/>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="67" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="68"/>
@@ -2285,11 +2287,11 @@
       <c r="AA16" s="46"/>
       <c r="AB16" s="46"/>
       <c r="AC16" s="48"/>
-      <c r="AD16" s="75" t="s">
+      <c r="AD16" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AE16" s="76"/>
-      <c r="AF16" s="77"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="64"/>
       <c r="AG16" s="18"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
@@ -2333,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="67"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="68"/>
       <c r="E17" s="19"/>
       <c r="F17" s="34"/>
@@ -2372,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="19"/>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="67" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="68"/>
@@ -2447,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="67"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="68"/>
       <c r="E19" s="19"/>
       <c r="F19" s="31"/>
@@ -2483,13 +2485,13 @@
       <c r="AF19" s="33"/>
       <c r="AG19" s="18"/>
     </row>
-    <row r="20" spans="1:69" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:69" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>1</v>
       </c>
       <c r="B20" s="19"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="19"/>
       <c r="F20" s="30" t="s">
         <v>16</v>
@@ -2565,11 +2567,11 @@
         <v>1</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="72"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="19"/>
       <c r="F21" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="40"/>
@@ -2596,7 +2598,7 @@
       <c r="AA21" s="35"/>
       <c r="AB21" s="35"/>
       <c r="AC21" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD21" s="35"/>
       <c r="AE21" s="35"/>
@@ -2644,8 +2646,8 @@
         <v>1</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="19"/>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
@@ -2744,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -2760,7 +2762,7 @@
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
       <c r="T24" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U24" s="24"/>
       <c r="V24" s="24"/>
@@ -2843,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
@@ -2855,13 +2857,13 @@
       <c r="N26" s="27"/>
       <c r="O26" s="27"/>
       <c r="P26" s="26" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
       <c r="S26" s="28"/>
       <c r="T26" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -2884,10 +2886,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="19"/>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="66"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="19"/>
       <c r="F27" s="29" t="s">
         <v>9</v>
@@ -2950,11 +2952,11 @@
         <v>1</v>
       </c>
       <c r="B28" s="19"/>
-      <c r="C28" s="67"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="68"/>
       <c r="E28" s="19"/>
       <c r="F28" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
@@ -2968,7 +2970,7 @@
       <c r="P28" s="32"/>
       <c r="Q28" s="32"/>
       <c r="R28" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S28" s="32"/>
       <c r="T28" s="32"/>
@@ -3006,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="19"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="67" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="68"/>
@@ -3072,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="19"/>
-      <c r="C30" s="67"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="68"/>
       <c r="E30" s="19"/>
       <c r="F30" s="34"/>
@@ -3124,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="19"/>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="68"/>
@@ -3149,12 +3151,12 @@
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
-      <c r="T31" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="62"/>
+      <c r="T31" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="74"/>
       <c r="X31" s="22" t="s">
         <v>25</v>
       </c>
@@ -3190,11 +3192,11 @@
         <v>1</v>
       </c>
       <c r="B32" s="19"/>
-      <c r="C32" s="67"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="68"/>
       <c r="E32" s="8"/>
       <c r="F32" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="38"/>
@@ -3211,12 +3213,12 @@
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
-      <c r="T32" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="U32" s="61"/>
-      <c r="V32" s="61"/>
-      <c r="W32" s="62"/>
+      <c r="T32" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="74"/>
       <c r="X32" s="37"/>
       <c r="Y32" s="37"/>
       <c r="Z32" s="37"/>
@@ -3225,7 +3227,7 @@
       <c r="AC32" s="35"/>
       <c r="AD32" s="35"/>
       <c r="AE32" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AF32" s="35"/>
       <c r="AG32" s="18"/>
@@ -3250,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="19"/>
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="67" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="68"/>
@@ -3281,11 +3283,11 @@
       <c r="AA33" s="22"/>
       <c r="AB33" s="22"/>
       <c r="AC33" s="25"/>
-      <c r="AD33" s="75" t="s">
+      <c r="AD33" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="AE33" s="78"/>
-      <c r="AF33" s="79"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="66"/>
       <c r="AG33" s="17"/>
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
@@ -3329,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="19"/>
-      <c r="C34" s="67"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="68"/>
       <c r="E34" s="19"/>
       <c r="F34" s="31"/>
@@ -3368,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="19"/>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="67" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="68"/>
@@ -3379,7 +3381,7 @@
       <c r="G35" s="46"/>
       <c r="H35" s="47"/>
       <c r="I35" s="47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J35" s="47"/>
       <c r="K35" s="46"/>
@@ -3451,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="19"/>
-      <c r="C36" s="67"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="68"/>
       <c r="E36" s="19"/>
       <c r="F36" s="50" t="s">
@@ -3494,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="58"/>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="67" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="68"/>
@@ -3525,11 +3527,11 @@
       <c r="AA37" s="46"/>
       <c r="AB37" s="46"/>
       <c r="AC37" s="48"/>
-      <c r="AD37" s="75" t="s">
+      <c r="AD37" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AE37" s="76"/>
-      <c r="AF37" s="77"/>
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="64"/>
       <c r="AG37" s="18"/>
       <c r="AH37" s="58"/>
       <c r="AI37" s="58"/>
@@ -3572,7 +3574,7 @@
       <c r="A38" s="58">
         <v>1</v>
       </c>
-      <c r="C38" s="67"/>
+      <c r="C38" s="69"/>
       <c r="D38" s="68"/>
       <c r="F38" s="34"/>
       <c r="G38" s="35"/>
@@ -3610,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="58"/>
-      <c r="C39" s="69" t="s">
+      <c r="C39" s="67" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="68"/>
@@ -3684,7 +3686,7 @@
       <c r="A40" s="58">
         <v>1</v>
       </c>
-      <c r="C40" s="67"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="68"/>
       <c r="F40" s="31"/>
       <c r="G40" s="32"/>
@@ -3724,8 +3726,8 @@
         <v>1</v>
       </c>
       <c r="B41" s="19"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="81"/>
       <c r="E41" s="19"/>
       <c r="F41" s="30" t="s">
         <v>16</v>
@@ -3794,7 +3796,7 @@
       <c r="BP41" s="2"/>
       <c r="BQ41" s="2"/>
     </row>
-    <row r="42" spans="1:69" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:69" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="19">
         <v>1</v>
       </c>
@@ -3803,7 +3805,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="19"/>
       <c r="F42" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G42" s="32"/>
       <c r="H42" s="40"/>
@@ -3889,8 +3891,8 @@
     </row>
     <row r="44" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="64"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="76"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3952,8 +3954,8 @@
     </row>
     <row r="45" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -5652,11 +5654,13 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AJ5:AV6"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C37:D38"/>
     <mergeCell ref="AD37:AF37"/>
     <mergeCell ref="C6:D7"/>
@@ -5668,17 +5672,15 @@
     <mergeCell ref="T11:W11"/>
     <mergeCell ref="T31:W31"/>
     <mergeCell ref="T32:W32"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="C33:D34"/>
     <mergeCell ref="C16:D17"/>
     <mergeCell ref="C18:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D22"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="AJ5:AV6"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="C35:D36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="3.937007874015748E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
